--- a/data_year/zb/农业/乡村从业人员.xlsx
+++ b/data_year/zb/农业/乡村从业人员.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,247 +458,57 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47962.1412</v>
+        <v>53243.9321</v>
       </c>
       <c r="C2" t="n">
-        <v>22444.3311</v>
+        <v>24670.3854</v>
       </c>
       <c r="D2" t="n">
-        <v>25517.7801</v>
+        <v>28573.5467</v>
       </c>
       <c r="E2" t="n">
-        <v>32797.4981</v>
+        <v>27694.7704</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48228.9393</v>
+        <v>53685.4444</v>
       </c>
       <c r="C3" t="n">
-        <v>22543.5446</v>
+        <v>24933.3797</v>
       </c>
       <c r="D3" t="n">
-        <v>25685.3747</v>
+        <v>28752.0545</v>
       </c>
       <c r="E3" t="n">
-        <v>32451.0064</v>
+        <v>27355.4198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48526.8515</v>
+        <v>53857.8772</v>
       </c>
       <c r="C4" t="n">
-        <v>22676.73</v>
+        <v>25009.9082</v>
       </c>
       <c r="D4" t="n">
-        <v>25850.1165</v>
+        <v>28847.0026</v>
       </c>
       <c r="E4" t="n">
-        <v>31990.5837</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>48971.02</v>
-      </c>
-      <c r="C5" t="n">
-        <v>22849.98</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26121.04</v>
-      </c>
-      <c r="E5" t="n">
-        <v>31259.6345</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>49695.28</v>
-      </c>
-      <c r="C6" t="n">
-        <v>23169.51</v>
-      </c>
-      <c r="D6" t="n">
-        <v>26525.77</v>
-      </c>
-      <c r="E6" t="n">
-        <v>30596</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>50387.2626</v>
-      </c>
-      <c r="C7" t="n">
-        <v>23456.711</v>
-      </c>
-      <c r="D7" t="n">
-        <v>26930.5516</v>
-      </c>
-      <c r="E7" t="n">
-        <v>29975.5382</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>50976.8101</v>
-      </c>
-      <c r="C8" t="n">
-        <v>23683.77385</v>
-      </c>
-      <c r="D8" t="n">
-        <v>27293.03625</v>
-      </c>
-      <c r="E8" t="n">
-        <v>29418.4077</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>51435.7421</v>
-      </c>
-      <c r="C9" t="n">
-        <v>23927.6809</v>
-      </c>
-      <c r="D9" t="n">
-        <v>27508.0612</v>
-      </c>
-      <c r="E9" t="n">
-        <v>28640.6759</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>52025.6414</v>
-      </c>
-      <c r="C10" t="n">
-        <v>24190.7464</v>
-      </c>
-      <c r="D10" t="n">
-        <v>27834.895</v>
-      </c>
-      <c r="E10" t="n">
-        <v>28363.5966</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>52599.2989</v>
-      </c>
-      <c r="C11" t="n">
-        <v>24412.9703</v>
-      </c>
-      <c r="D11" t="n">
-        <v>28186.3286</v>
-      </c>
-      <c r="E11" t="n">
-        <v>28065.2649</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>53243.9321</v>
-      </c>
-      <c r="C12" t="n">
-        <v>24670.3854</v>
-      </c>
-      <c r="D12" t="n">
-        <v>28573.5467</v>
-      </c>
-      <c r="E12" t="n">
-        <v>27694.7704</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>53685.4444</v>
-      </c>
-      <c r="C13" t="n">
-        <v>24933.3797</v>
-      </c>
-      <c r="D13" t="n">
-        <v>28752.0545</v>
-      </c>
-      <c r="E13" t="n">
-        <v>27355.4198</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>53857.8772</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25009.9082</v>
-      </c>
-      <c r="D14" t="n">
-        <v>28847.0026</v>
-      </c>
-      <c r="E14" t="n">
         <v>27032.2501</v>
       </c>
     </row>
